--- a/пример планирования.xlsx
+++ b/пример планирования.xlsx
@@ -166,7 +166,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +211,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor indexed="26"/>
       </patternFill>
@@ -248,10 +242,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -688,7 +682,7 @@
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
@@ -696,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -705,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -714,24 +708,24 @@
         <v>21</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -836,7 +830,7 @@
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -872,7 +866,7 @@
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="10"/>
@@ -882,7 +876,7 @@
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="10"/>
@@ -890,6 +884,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
